--- a/biology/Botanique/Parallel_Strand_Lumber/Parallel_Strand_Lumber.xlsx
+++ b/biology/Botanique/Parallel_Strand_Lumber/Parallel_Strand_Lumber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le PSL (de l’anglais Parallel Strand Lumber) est un matériau obtenu par collage de placages de bois disposés à fils parallèles, encollés et pressés en continu.
-Le PSL appartient à la famille de bois d'ingénierie appelée bois composite structurel. D'autres membres de cette famille sont le LVL et le LSL. Tous les membres de cette famille ont une grande résistance mécanique et sont interchangeables pour certaines applications[1].
+Le PSL appartient à la famille de bois d'ingénierie appelée bois composite structurel. D'autres membres de cette famille sont le LVL et le LSL. Tous les membres de cette famille ont une grande résistance mécanique et sont interchangeables pour certaines applications.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’épaisseur maximale de chaque placage est de 6 mm. La longueur moyenne est d’au moins 300 fois l’épaisseur. 
 Le PSL a une résistance mécanique élevée. 
@@ -545,9 +559,11 @@
           <t>Fabrication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fabrication du PSL commence par le découpage dans le sens longitudinal de feuilles de bois de 2 mm d'épaisseur pour donner des lamelles de 2 cm de longueur. Un système optique écarte les lamelles qui ont des défauts, les autres étant agglomérées avec un liant et pressées en continu[2].    
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fabrication du PSL commence par le découpage dans le sens longitudinal de feuilles de bois de 2 mm d'épaisseur pour donner des lamelles de 2 cm de longueur. Un système optique écarte les lamelles qui ont des défauts, les autres étant agglomérées avec un liant et pressées en continu.    
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Application</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le PSL est utilisé sous forme de poutres de grosses section comme charpente et linteau de grande portée[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le PSL est utilisé sous forme de poutres de grosses section comme charpente et linteau de grande portée.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Produits commerciaux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le PSL est vendu, entre autres, sous le nom commercial Parallam de Weyerhaeuser.
 </t>
